--- a/storage/app/xlsx/seed_cidades_sp.xlsx
+++ b/storage/app/xlsx/seed_cidades_sp.xlsx
@@ -23,7 +23,7 @@
     <t>ADAMANTINENSE</t>
   </si>
   <si>
-    <t>163593e2-e7f5-4482-a7d4-baeb805ea0d3</t>
+    <t>b2f8080d-5d93-40cd-a6d3-5bdc7113af2c</t>
   </si>
   <si>
     <t>ADOLFO</t>

--- a/storage/app/xlsx/seed_cidades_sp.xlsx
+++ b/storage/app/xlsx/seed_cidades_sp.xlsx
@@ -23,7 +23,7 @@
     <t>ADAMANTINENSE</t>
   </si>
   <si>
-    <t>b2f8080d-5d93-40cd-a6d3-5bdc7113af2c</t>
+    <t>d4efc9a3-2eed-45a1-a68b-34b0c9eb6f0b</t>
   </si>
   <si>
     <t>ADOLFO</t>

--- a/storage/app/xlsx/seed_cidades_sp.xlsx
+++ b/storage/app/xlsx/seed_cidades_sp.xlsx
@@ -23,7 +23,7 @@
     <t>ADAMANTINENSE</t>
   </si>
   <si>
-    <t>d4efc9a3-2eed-45a1-a68b-34b0c9eb6f0b</t>
+    <t>6537bf71-c649-4572-875d-da9fc4a970f1</t>
   </si>
   <si>
     <t>ADOLFO</t>

--- a/storage/app/xlsx/seed_cidades_sp.xlsx
+++ b/storage/app/xlsx/seed_cidades_sp.xlsx
@@ -23,7 +23,7 @@
     <t>ADAMANTINENSE</t>
   </si>
   <si>
-    <t>6537bf71-c649-4572-875d-da9fc4a970f1</t>
+    <t>646e8544-cc96-4544-bbc4-9625c43e9254</t>
   </si>
   <si>
     <t>ADOLFO</t>

--- a/storage/app/xlsx/seed_cidades_sp.xlsx
+++ b/storage/app/xlsx/seed_cidades_sp.xlsx
@@ -23,7 +23,7 @@
     <t>ADAMANTINENSE</t>
   </si>
   <si>
-    <t>646e8544-cc96-4544-bbc4-9625c43e9254</t>
+    <t>61e85797-0edf-4e66-b898-2e5e1c84fb9e</t>
   </si>
   <si>
     <t>ADOLFO</t>

--- a/storage/app/xlsx/seed_cidades_sp.xlsx
+++ b/storage/app/xlsx/seed_cidades_sp.xlsx
@@ -23,7 +23,7 @@
     <t>ADAMANTINENSE</t>
   </si>
   <si>
-    <t>61e85797-0edf-4e66-b898-2e5e1c84fb9e</t>
+    <t>da0b0494-99d5-4f0b-98fa-6a511fea78b2</t>
   </si>
   <si>
     <t>ADOLFO</t>
